--- a/scopus_methods.xlsx
+++ b/scopus_methods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Author Keywords</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DOI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +489,11 @@
           <t>3D surface reconstruction; cattle scanner; deep learning; segmentation</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.3390/s24165275</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,6 +519,11 @@
           <t>Deep learning; Precision livestock farming; Sheep identification; Sheep tracking; YOLO</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.1007/s11760-024-03344-5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,6 +549,11 @@
           <t>cattle weight estimation; data modalities; deep learning models; depth information; segmentation</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.3390/jimaging10030072</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,6 +579,11 @@
           <t>Attention mechanism; Big data; Cattle and sheep breeding; Deep learning; Single stage target detection; Target detection; Tibetan Plateau; YOLOv8</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.1109/ASIP63198.2024.00012</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +609,11 @@
           <t>Distributed Computing; Intelligent Computer Vision; Livestock Management; Optical Character Recognition (OCR)</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.1109/ISCT62336.2024.10791290</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>Attention mechanism; CNN; Computer vision; Deep learning; Pig face recognition</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.1016/j.compag.2024.109099</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -634,6 +669,7 @@
           <t>Animal Detection; Deep Learning; IoT; Road Safety; YOLO</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -659,6 +695,11 @@
           <t>computer vision; convolutional neural network; deep learning; intelligent livestock farming; sheep face recognition</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.3390/agriculture14071112</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -684,6 +725,11 @@
           <t>animals; computer vision; deep learning; re-identification</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.24132/CSRN.3401.15</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -709,6 +755,11 @@
           <t>cattle breed classification; computer vision; DenseNet; EfficientNet; MobileNet; ResNet</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.1109/ICDS62089.2024.10756442</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -734,6 +785,11 @@
           <t>cattle body size measurement; computer vision; deep learning; precision livestock farming</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.1145/3653781.3653831</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -759,6 +815,11 @@
           <t>Computer Vision; Deep Learning; UAV; Wildlife detection; YOLO</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.1109/ARGENCON62399.2024.10735858</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -784,6 +845,11 @@
           <t>deep learning; DeepSort algorithm; livestock classification; object detection; object tracking</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.3390/agriculture14040522</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -809,6 +875,11 @@
           <t>attention mechanism; computer vision; deep learning; Object recognition and classification; YOLOv4-tiny</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.1177/17298806231218865</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -834,6 +905,11 @@
           <t>deep learning; intelligent aquaculture; turbid underwater; underwater; underwater image enhancement; white shrimp</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.1109/ICCCI62159.2024.10674548</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -859,6 +935,11 @@
           <t>abnormality monitoring; livestock inspection robot; pig inventory; YOLOV5</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.1109/MLHMI63000.2024.00012</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -884,6 +965,11 @@
           <t>convolutional neural networks; deep learning algorithms; MAV; object identification; tracking systems</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10.3390/computation11120244</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -909,6 +995,11 @@
           <t>deep learning; face image recording channel; lightweight recognition model; sheep face recognition; YOLOv7-tiny</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.1093/jas/skae066</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -934,6 +1025,11 @@
           <t>Cow; Deep learning; Identification; Iris; Segmentation</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10.5187/jast.2023.e51</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -959,6 +1055,11 @@
           <t>computer vision; convolutional neural network; Deep learning; internet-of-things; object detection; YOLOv5</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.1109/AINIT61980.2024.10581525</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -984,6 +1085,11 @@
           <t>Deep learning; Deep Neural Networks; IOT; YOLO</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.1109/ICKECS61492.2024.10616522</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1009,6 +1115,11 @@
           <t>deep learning; DETR; sheep detection; YOLO NAS; YOLOv5</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.1109/ICOM61675.2024.10652292</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1034,6 +1145,11 @@
           <t>Attention mechanism; Biometric recognition; Computer vision; Deep learning; YOLOv9</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.1109/ICCE-Taiwan62264.2024.10674650</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1059,6 +1175,11 @@
           <t>Convolutional Neural Networks; Darknet; Deep learning; Detection; Environment; Geomembrane basin; Water save; Yolo</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10.5194/isprs-archives-XLVIII-4-W6-2022-75-2023</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1084,6 +1205,11 @@
           <t>deep learning; grassland grazing livestock; object detection; remote sensing image; unmanned aerial vehicle (UAV)</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.3390/rs15061593</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1109,6 +1235,11 @@
           <t>Camera trap images; Deep learning; Ensemble learning; Human activity images; Wildlife image</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10.1016/j.ecoinf.2023.102262</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1134,6 +1265,11 @@
           <t>Animal Face Identification; Animal face Recognition; Artificial Intelligence; Deep Learning; Livestock Housing; Precision Livestock Farming</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10.1109/MetroAgriFor58484.2023.10424103</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1159,6 +1295,11 @@
           <t>animal counting; convolutional neural networks; deep learning; deer; SSD; YOLO</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10.3390/drones7030179</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1184,6 +1325,11 @@
           <t>3D reconstruction; Deep learning; Pigs; Point cloud; Real-time weight estimation</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10.1016/j.compag.2023.107903</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1209,6 +1355,11 @@
           <t>Convolutional neural networks; Deep learning; Object detection; Wild animal detection; Yolov8</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10.1016/j.procs.2023.12.065</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1234,6 +1385,11 @@
           <t>Artificial intelligence; Consumer preference prediction; Deep learning; Pork quality; Precision livestock farming (PLF)</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.1016/j.crfs.2023.100495</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1259,6 +1415,11 @@
           <t>cattle monitoring; drone image processing; drones; image stitching algorithms; livestock management</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.3390/drones7010017</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1284,6 +1445,11 @@
           <t>2D-3D fusion; Deep learning; Point cloud; Precision livestock farming</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10.1016/j.compag.2022.107059</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1309,6 +1475,11 @@
           <t>computer vision; cow estrus detection; deep learning; Livestock management; YOLOv8</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.1109/ICSIMA59853.2023.10373431</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1334,6 +1505,11 @@
           <t>aerial survey; animal conservation; convolutional neural networks; Deep Learning; livestock; object detection; remote sensing; wildlife</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.3389/fevo.2023.1270857</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1359,6 +1535,11 @@
           <t>Convolutional Neural Network; Deep learning; Fruits and Vegetable detection; Object detection; Recognition; YOLO; YOLOv4 Tiny</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.1109/ICCCI54379.2022.9740820</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1384,6 +1565,11 @@
           <t>Accuracy; Deep Learning; Inflation; Prediction; Reinforcement Learning; Stock Market</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10.1109/ICRITO56286.2022.9964748</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1409,6 +1595,11 @@
           <t>Cattle; Deep learning network; Estrus; Mating posture; Mish activation function; Object detection</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10.1007/s42835-021-00701-z</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1432,6 +1623,11 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>CNN; Kalman filter; Livestock; Tracking; UAV</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-030-72073-5_19</t>
         </is>
       </c>
     </row>
